--- a/data/Classess_2021_biotech.xlsx
+++ b/data/Classess_2021_biotech.xlsx
@@ -115,7 +115,7 @@
     <t>Александра</t>
   </si>
   <si>
-    <t>St089959@student.spbu.ru</t>
+    <t>st089959@student.spbu.ru</t>
   </si>
   <si>
     <t>st089959</t>
@@ -496,6 +496,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -513,14 +521,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,35 +557,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -570,9 +571,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,9 +594,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +610,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,24 +618,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -647,13 +647,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,103 +785,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,61 +815,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,11 +856,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,35 +910,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,32 +936,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,16 +958,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,131 +979,131 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,6 +1120,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,7 +1462,7 @@
     <col min="6" max="6" width="16.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15.15" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>9110330736</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>9991642944</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
@@ -1589,7 +1592,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1599,7 +1602,7 @@
         <v>950224114</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -2046,7 +2049,7 @@
       <c r="E30" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="7">
         <v>375445514391</v>
       </c>
     </row>
@@ -2124,6 +2127,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="st090423"/>
+    <hyperlink ref="D7" r:id="rId2" display="st089959@student.spbu.ru"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/Classess_2021_biotech.xlsx
+++ b/data/Classess_2021_biotech.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Students" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Students!$A$1:$G$34</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="150">
   <si>
     <t>Family</t>
   </si>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>Seminar_Group</t>
   </si>
   <si>
     <t>Алов</t>
@@ -468,9 +474,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -504,39 +510,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,10 +538,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -580,57 +618,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -647,127 +653,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,55 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,17 +862,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,15 +906,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -906,6 +917,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,29 +953,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,148 +964,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1446,14 +1452,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="32.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1462,7 +1468,7 @@
     <col min="6" max="6" width="16.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:6">
+    <row r="1" ht="15.15" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1481,650 +1487,760 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="15.15" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" hidden="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3">
         <v>9119108442</v>
       </c>
-    </row>
-    <row r="3" ht="15.15" spans="1:6">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3">
         <v>9501461104</v>
       </c>
-    </row>
-    <row r="4" ht="15.15" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3">
         <v>9119220308</v>
       </c>
-    </row>
-    <row r="5" ht="15.15" spans="1:6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3">
         <v>9110330736</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3">
         <v>9991642944</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" hidden="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3">
         <v>950224114</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3">
         <v>9052500067</v>
       </c>
-    </row>
-    <row r="9" ht="15.15" spans="1:6">
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3">
         <v>9602305670</v>
       </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:6">
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3">
         <v>9167625547</v>
       </c>
-    </row>
-    <row r="11" ht="15.15" spans="1:6">
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" hidden="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" ht="15.15" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" hidden="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3">
         <v>9115155746</v>
       </c>
-    </row>
-    <row r="13" ht="15.15" spans="1:6">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3">
         <v>9117727956</v>
       </c>
-    </row>
-    <row r="14" ht="15.15" spans="1:6">
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" hidden="1" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="3">
         <v>9218866686</v>
       </c>
-    </row>
-    <row r="15" ht="15.15" spans="1:6">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="15.15" hidden="1" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="3">
         <v>987857321</v>
       </c>
-    </row>
-    <row r="16" ht="15.15" spans="1:6">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="3">
         <v>9967698669</v>
       </c>
-    </row>
-    <row r="17" ht="15.15" spans="1:6">
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="3">
         <v>914195979</v>
       </c>
-    </row>
-    <row r="18" ht="15.15" spans="1:6">
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="3">
         <v>911277584</v>
       </c>
-    </row>
-    <row r="19" ht="15.15" spans="1:6">
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3">
         <v>9117830647</v>
       </c>
-    </row>
-    <row r="20" ht="15.15" spans="1:6">
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" hidden="1" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" s="3">
         <v>9111562462</v>
       </c>
-    </row>
-    <row r="21" ht="15.15" spans="1:6">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" ht="15.15" spans="1:6">
+        <v>97</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="15.15" hidden="1" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F22" s="3">
         <v>909786031</v>
       </c>
-    </row>
-    <row r="23" ht="15.15" spans="1:6">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" ht="15.15" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F24" s="3">
         <v>705531888</v>
       </c>
-    </row>
-    <row r="25" ht="15.15" spans="1:6">
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25" s="3">
         <v>99677074545</v>
       </c>
-    </row>
-    <row r="26" ht="15.15" spans="1:6">
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="3">
         <v>99362670546</v>
       </c>
-    </row>
-    <row r="27" ht="15.15" spans="1:6">
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="15.15" spans="1:7">
       <c r="A27" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F27" s="3">
         <v>99363993585</v>
       </c>
-    </row>
-    <row r="28" ht="15.15" spans="1:6">
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="15.15" hidden="1" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F28" s="3">
         <v>7758265558</v>
       </c>
-    </row>
-    <row r="29" ht="15.15" spans="1:6">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="15.15" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F29" s="3">
         <v>9633065693</v>
       </c>
-    </row>
-    <row r="30" ht="15.15" spans="1:6">
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F30" s="7">
         <v>375445514391</v>
       </c>
-    </row>
-    <row r="31" ht="15.15" spans="1:6">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F31" s="3">
         <v>9111424790</v>
       </c>
-    </row>
-    <row r="32" ht="15.15" spans="1:6">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F32" s="3">
         <v>7053152955</v>
       </c>
-    </row>
-    <row r="33" ht="15.15" spans="1:6">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F33" s="3">
         <v>7054571352</v>
       </c>
-    </row>
-    <row r="34" ht="15.15" spans="1:6">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F34" s="3">
         <v>7077270677</v>
       </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G34">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="equal" val="2"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="st090423"/>
     <hyperlink ref="D7" r:id="rId2" display="st089959@student.spbu.ru"/>

--- a/data/Classess_2021_biotech.xlsx
+++ b/data/Classess_2021_biotech.xlsx
@@ -474,9 +474,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -511,14 +511,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,22 +525,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -562,17 +547,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,15 +576,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -611,28 +601,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,19 +653,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,163 +827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,11 +862,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,26 +888,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,21 +906,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,9 +927,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,148 +964,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,11 +1452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1491,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:7">
+    <row r="2" ht="15.15" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:7">
+    <row r="3" ht="15.15" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:7">
+    <row r="4" ht="15.15" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:7">
+    <row r="5" ht="15.15" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:7">
+    <row r="6" ht="15.15" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15.15" hidden="1" spans="1:7">
+    <row r="7" ht="15.15" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" ht="15.15" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="15.15" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="15.15" hidden="1" spans="1:7">
+    <row r="11" ht="15.15" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15.15" hidden="1" spans="1:7">
+    <row r="12" ht="15.15" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="15.15" hidden="1" spans="1:7">
+    <row r="14" ht="15.15" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15.15" hidden="1" spans="1:7">
+    <row r="15" ht="15.15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" ht="15.15" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" ht="15.15" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>78</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" ht="15.15" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="15.15" hidden="1" spans="1:7">
+    <row r="20" ht="15.15" spans="1:7">
       <c r="A20" s="4" t="s">
         <v>89</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="15.15" hidden="1" spans="1:7">
+    <row r="22" ht="15.15" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>98</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" ht="15.15" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>102</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" ht="15.15" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>107</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" ht="15.15" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>111</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" ht="15.15" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>115</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" ht="15.15" hidden="1" spans="1:7">
+    <row r="28" ht="15.15" spans="1:7">
       <c r="A28" s="4" t="s">
         <v>124</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:7">
+    <row r="30" ht="15.15" spans="1:7">
       <c r="A30" s="4" t="s">
         <v>134</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:7">
+    <row r="31" ht="15.15" spans="1:7">
       <c r="A31" s="4" t="s">
         <v>137</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:7">
+    <row r="32" ht="15.15" spans="1:7">
       <c r="A32" s="4" t="s">
         <v>141</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:7">
+    <row r="33" ht="15.15" spans="1:7">
       <c r="A33" s="4" t="s">
         <v>144</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:7">
+    <row r="34" ht="15.15" spans="1:7">
       <c r="A34" s="4" t="s">
         <v>147</v>
       </c>
@@ -2234,11 +2234,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G34">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="equal" val="2"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <hyperlinks>
